--- a/Storage_project/statistic.xlsx
+++ b/Storage_project/statistic.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,17 +432,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Smartphone</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>car</t>
+          <t>['Smartphone', 'car']</t>
         </is>
       </c>
     </row>
@@ -452,14 +442,15 @@
           <t>Quantity</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -468,14 +459,15 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>124000</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7000.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>65000.0</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -489,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +504,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Iphone 14 PRO</t>
+          <t>Iphone 14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TV53VC</t>
+          <t>GalaxyS23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S23FE</t>
+          <t>XC90</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>xc90</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,185 +553,74 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>Order id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>Order price</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>order id</t>
-        </is>
-      </c>
-      <c r="D1" t="n">
+          <t>Creation date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Goods id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Goods quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>order price</t>
-        </is>
-      </c>
-      <c r="F1" t="n">
-        <v>63500</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>product_id: 1</t>
-        </is>
-      </c>
-      <c r="H1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>product_id: 4</t>
-        </is>
-      </c>
-      <c r="J1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-03-20</t>
-        </is>
+      <c r="B2" t="n">
+        <v>67000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>order id</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 3 </t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>order price</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>63200</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>product_id: 2</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>product_id: 4</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
+          <t xml:space="preserve">1 1 </t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-03-20</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>order id</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 2 </t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>order price</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10200</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>product_id: 1</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>product_id: 2</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>product_id: 3</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>order id</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>order price</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5100</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>product_id: 1</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>product_id: 2</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
+          <t xml:space="preserve">1 2 </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -779,7 +650,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>142000.0</t>
+          <t>72000.0</t>
         </is>
       </c>
     </row>
@@ -791,7 +662,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -815,7 +686,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S23FE</t>
+          <t>GalaxyS23</t>
         </is>
       </c>
     </row>
